--- a/Beam_Property_Tool/HEB_Profiles_S235_Eurocode_3.xlsx
+++ b/Beam_Property_Tool/HEB_Profiles_S235_Eurocode_3.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11085" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HEB_Profiles_S235_Eurocode_3" sheetId="1" r:id="rId1"/>
+    <sheet name="IPE_Profiles_S235_Eurocode_3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="125">
   <si>
     <t>Profile dimensions</t>
   </si>
@@ -345,6 +346,60 @@
   </si>
   <si>
     <t>Mpl,Rd,z </t>
+  </si>
+  <si>
+    <t>IPE80</t>
+  </si>
+  <si>
+    <t>IPE100</t>
+  </si>
+  <si>
+    <t>IPE120</t>
+  </si>
+  <si>
+    <t>IPE140</t>
+  </si>
+  <si>
+    <t>IPE160</t>
+  </si>
+  <si>
+    <t>IPE180</t>
+  </si>
+  <si>
+    <t>IPE200</t>
+  </si>
+  <si>
+    <t>IPE220</t>
+  </si>
+  <si>
+    <t>IPE240</t>
+  </si>
+  <si>
+    <t>IPE270</t>
+  </si>
+  <si>
+    <t>IPE300</t>
+  </si>
+  <si>
+    <t>IPE330</t>
+  </si>
+  <si>
+    <t>IPE360</t>
+  </si>
+  <si>
+    <t>IPE400</t>
+  </si>
+  <si>
+    <t>IPE450</t>
+  </si>
+  <si>
+    <t>IPE500</t>
+  </si>
+  <si>
+    <t>IPE550</t>
+  </si>
+  <si>
+    <t>IPE600</t>
   </si>
 </sst>
 </file>
@@ -664,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -3559,4 +3614,2259 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" t="s">
+        <v>93</v>
+      </c>
+      <c r="T3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U3" t="s">
+        <v>96</v>
+      </c>
+      <c r="V3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W3" t="s">
+        <v>99</v>
+      </c>
+      <c r="X3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" t="s">
+        <v>88</v>
+      </c>
+      <c r="T4" t="s">
+        <v>95</v>
+      </c>
+      <c r="U4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W4" t="s">
+        <v>95</v>
+      </c>
+      <c r="X4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>3.8</v>
+      </c>
+      <c r="E6">
+        <v>5.2</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="I6">
+        <v>764</v>
+      </c>
+      <c r="J6">
+        <v>358</v>
+      </c>
+      <c r="K6">
+        <v>478</v>
+      </c>
+      <c r="L6">
+        <v>0.8014</v>
+      </c>
+      <c r="M6">
+        <v>32.4</v>
+      </c>
+      <c r="N6">
+        <v>20.03</v>
+      </c>
+      <c r="O6">
+        <v>23.22</v>
+      </c>
+      <c r="P6">
+        <v>8.4889999999999993E-2</v>
+      </c>
+      <c r="Q6">
+        <v>10.5</v>
+      </c>
+      <c r="R6">
+        <v>3.6909999999999998</v>
+      </c>
+      <c r="S6">
+        <v>5.8179999999999996</v>
+      </c>
+      <c r="T6">
+        <v>6.7270000000000003</v>
+      </c>
+      <c r="U6">
+        <v>1.77</v>
+      </c>
+      <c r="V6">
+        <v>115.1</v>
+      </c>
+      <c r="W6">
+        <v>135.19999999999999</v>
+      </c>
+      <c r="X6">
+        <v>179.62</v>
+      </c>
+      <c r="Y6">
+        <v>48.53</v>
+      </c>
+      <c r="Z6">
+        <v>64.91</v>
+      </c>
+      <c r="AA6">
+        <v>4.71</v>
+      </c>
+      <c r="AB6">
+        <v>5.46</v>
+      </c>
+      <c r="AC6">
+        <v>0.87</v>
+      </c>
+      <c r="AD6">
+        <v>1.37</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>55</v>
+      </c>
+      <c r="D7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E7">
+        <v>5.7</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>8.1</v>
+      </c>
+      <c r="H7">
+        <v>0.4</v>
+      </c>
+      <c r="I7">
+        <v>1032</v>
+      </c>
+      <c r="J7">
+        <v>508</v>
+      </c>
+      <c r="K7">
+        <v>627</v>
+      </c>
+      <c r="L7">
+        <v>1.71</v>
+      </c>
+      <c r="M7">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="N7">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="O7">
+        <v>39.409999999999997</v>
+      </c>
+      <c r="P7">
+        <v>0.15920000000000001</v>
+      </c>
+      <c r="Q7">
+        <v>12.4</v>
+      </c>
+      <c r="R7">
+        <v>5.7889999999999997</v>
+      </c>
+      <c r="S7">
+        <v>9.1460000000000008</v>
+      </c>
+      <c r="T7">
+        <v>11.53</v>
+      </c>
+      <c r="U7">
+        <v>2.8119999999999998</v>
+      </c>
+      <c r="V7">
+        <v>342.1</v>
+      </c>
+      <c r="W7">
+        <v>266.8</v>
+      </c>
+      <c r="X7">
+        <v>242.6</v>
+      </c>
+      <c r="Y7">
+        <v>68.989999999999995</v>
+      </c>
+      <c r="Z7">
+        <v>85.07</v>
+      </c>
+      <c r="AA7">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="AB7">
+        <v>9.26</v>
+      </c>
+      <c r="AC7">
+        <v>1.36</v>
+      </c>
+      <c r="AD7">
+        <v>2.15</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8">
+        <v>120</v>
+      </c>
+      <c r="C8">
+        <v>64</v>
+      </c>
+      <c r="D8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E8">
+        <v>6.3</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>10.4</v>
+      </c>
+      <c r="H8">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I8">
+        <v>1321</v>
+      </c>
+      <c r="J8">
+        <v>631</v>
+      </c>
+      <c r="K8">
+        <v>806</v>
+      </c>
+      <c r="L8">
+        <v>3.1779999999999999</v>
+      </c>
+      <c r="M8">
+        <v>49</v>
+      </c>
+      <c r="N8">
+        <v>52.96</v>
+      </c>
+      <c r="O8">
+        <v>60.73</v>
+      </c>
+      <c r="P8">
+        <v>0.2767</v>
+      </c>
+      <c r="Q8">
+        <v>14.5</v>
+      </c>
+      <c r="R8">
+        <v>8.6460000000000008</v>
+      </c>
+      <c r="S8">
+        <v>13.58</v>
+      </c>
+      <c r="T8">
+        <v>16.89</v>
+      </c>
+      <c r="U8">
+        <v>3.839</v>
+      </c>
+      <c r="V8">
+        <v>872</v>
+      </c>
+      <c r="W8">
+        <v>483.4</v>
+      </c>
+      <c r="X8">
+        <v>310.44</v>
+      </c>
+      <c r="Y8">
+        <v>85.55</v>
+      </c>
+      <c r="Z8">
+        <v>109.41</v>
+      </c>
+      <c r="AA8">
+        <v>12.45</v>
+      </c>
+      <c r="AB8">
+        <v>14.27</v>
+      </c>
+      <c r="AC8">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AD8">
+        <v>3.19</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9">
+        <v>140</v>
+      </c>
+      <c r="C9">
+        <v>73</v>
+      </c>
+      <c r="D9">
+        <v>4.7</v>
+      </c>
+      <c r="E9">
+        <v>6.9</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>12.9</v>
+      </c>
+      <c r="H9">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="I9">
+        <v>1643</v>
+      </c>
+      <c r="J9">
+        <v>764</v>
+      </c>
+      <c r="K9">
+        <v>1007</v>
+      </c>
+      <c r="L9">
+        <v>5.4119999999999999</v>
+      </c>
+      <c r="M9">
+        <v>57.4</v>
+      </c>
+      <c r="N9">
+        <v>77.319999999999993</v>
+      </c>
+      <c r="O9">
+        <v>88.34</v>
+      </c>
+      <c r="P9">
+        <v>0.44919999999999999</v>
+      </c>
+      <c r="Q9">
+        <v>16.5</v>
+      </c>
+      <c r="R9">
+        <v>12.31</v>
+      </c>
+      <c r="S9">
+        <v>19.25</v>
+      </c>
+      <c r="T9">
+        <v>24.01</v>
+      </c>
+      <c r="U9">
+        <v>5.109</v>
+      </c>
+      <c r="V9">
+        <v>1951</v>
+      </c>
+      <c r="W9">
+        <v>808.2</v>
+      </c>
+      <c r="X9">
+        <v>386.01</v>
+      </c>
+      <c r="Y9">
+        <v>103.69</v>
+      </c>
+      <c r="Z9">
+        <v>136.68</v>
+      </c>
+      <c r="AA9">
+        <v>18.170000000000002</v>
+      </c>
+      <c r="AB9">
+        <v>20.76</v>
+      </c>
+      <c r="AC9">
+        <v>2.89</v>
+      </c>
+      <c r="AD9">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10">
+        <v>160</v>
+      </c>
+      <c r="C10">
+        <v>82</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>7.4</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>15.8</v>
+      </c>
+      <c r="H10">
+        <v>0.623</v>
+      </c>
+      <c r="I10">
+        <v>2009</v>
+      </c>
+      <c r="J10">
+        <v>966</v>
+      </c>
+      <c r="K10">
+        <v>1214</v>
+      </c>
+      <c r="L10">
+        <v>8.6929999999999996</v>
+      </c>
+      <c r="M10">
+        <v>65.8</v>
+      </c>
+      <c r="N10">
+        <v>108.7</v>
+      </c>
+      <c r="O10">
+        <v>123.9</v>
+      </c>
+      <c r="P10">
+        <v>0.68310000000000004</v>
+      </c>
+      <c r="Q10">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="R10">
+        <v>16.66</v>
+      </c>
+      <c r="S10">
+        <v>26.1</v>
+      </c>
+      <c r="T10">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="U10">
+        <v>7.06</v>
+      </c>
+      <c r="V10">
+        <v>3889</v>
+      </c>
+      <c r="W10">
+        <v>1252</v>
+      </c>
+      <c r="X10">
+        <v>472.15</v>
+      </c>
+      <c r="Y10">
+        <v>131.03</v>
+      </c>
+      <c r="Z10">
+        <v>164.66</v>
+      </c>
+      <c r="AA10">
+        <v>25.54</v>
+      </c>
+      <c r="AB10">
+        <v>29.11</v>
+      </c>
+      <c r="AC10">
+        <v>3.92</v>
+      </c>
+      <c r="AD10">
+        <v>6.13</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11">
+        <v>180</v>
+      </c>
+      <c r="C11">
+        <v>91</v>
+      </c>
+      <c r="D11">
+        <v>5.3</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>18.8</v>
+      </c>
+      <c r="H11">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="I11">
+        <v>2395</v>
+      </c>
+      <c r="J11">
+        <v>1125</v>
+      </c>
+      <c r="K11">
+        <v>1456</v>
+      </c>
+      <c r="L11">
+        <v>13.17</v>
+      </c>
+      <c r="M11">
+        <v>74.2</v>
+      </c>
+      <c r="N11">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="O11">
+        <v>166.4</v>
+      </c>
+      <c r="P11">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="Q11">
+        <v>20.5</v>
+      </c>
+      <c r="R11">
+        <v>22.16</v>
+      </c>
+      <c r="S11">
+        <v>34.6</v>
+      </c>
+      <c r="T11">
+        <v>47.23</v>
+      </c>
+      <c r="U11">
+        <v>8.9109999999999996</v>
+      </c>
+      <c r="V11">
+        <v>7322</v>
+      </c>
+      <c r="W11">
+        <v>1882</v>
+      </c>
+      <c r="X11">
+        <v>562.76</v>
+      </c>
+      <c r="Y11">
+        <v>152.65</v>
+      </c>
+      <c r="Z11">
+        <v>197.55</v>
+      </c>
+      <c r="AA11">
+        <v>34.39</v>
+      </c>
+      <c r="AB11">
+        <v>39.11</v>
+      </c>
+      <c r="AC11">
+        <v>5.21</v>
+      </c>
+      <c r="AD11">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>5.6</v>
+      </c>
+      <c r="E12">
+        <v>8.5</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>22.4</v>
+      </c>
+      <c r="H12">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="I12">
+        <v>2848</v>
+      </c>
+      <c r="J12">
+        <v>1400</v>
+      </c>
+      <c r="K12">
+        <v>1700</v>
+      </c>
+      <c r="L12">
+        <v>19.43</v>
+      </c>
+      <c r="M12">
+        <v>82.6</v>
+      </c>
+      <c r="N12">
+        <v>194.3</v>
+      </c>
+      <c r="O12">
+        <v>220.6</v>
+      </c>
+      <c r="P12">
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="Q12">
+        <v>22.4</v>
+      </c>
+      <c r="R12">
+        <v>28.47</v>
+      </c>
+      <c r="S12">
+        <v>44.61</v>
+      </c>
+      <c r="T12">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="U12">
+        <v>12.22</v>
+      </c>
+      <c r="V12">
+        <v>12746</v>
+      </c>
+      <c r="W12">
+        <v>2683</v>
+      </c>
+      <c r="X12">
+        <v>669.38</v>
+      </c>
+      <c r="Y12">
+        <v>189.95</v>
+      </c>
+      <c r="Z12">
+        <v>230.65</v>
+      </c>
+      <c r="AA12">
+        <v>45.66</v>
+      </c>
+      <c r="AB12">
+        <v>51.85</v>
+      </c>
+      <c r="AC12">
+        <v>6.69</v>
+      </c>
+      <c r="AD12">
+        <v>10.48</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13">
+        <v>220</v>
+      </c>
+      <c r="C13">
+        <v>110</v>
+      </c>
+      <c r="D13">
+        <v>5.9</v>
+      </c>
+      <c r="E13">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>26.2</v>
+      </c>
+      <c r="H13">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="I13">
+        <v>3337</v>
+      </c>
+      <c r="J13">
+        <v>1588</v>
+      </c>
+      <c r="K13">
+        <v>2024</v>
+      </c>
+      <c r="L13">
+        <v>27.72</v>
+      </c>
+      <c r="M13">
+        <v>91.1</v>
+      </c>
+      <c r="N13">
+        <v>252</v>
+      </c>
+      <c r="O13">
+        <v>285.39999999999998</v>
+      </c>
+      <c r="P13">
+        <v>2.0489999999999999</v>
+      </c>
+      <c r="Q13">
+        <v>24.8</v>
+      </c>
+      <c r="R13">
+        <v>37.25</v>
+      </c>
+      <c r="S13">
+        <v>58.11</v>
+      </c>
+      <c r="T13">
+        <v>89.82</v>
+      </c>
+      <c r="U13">
+        <v>15.22</v>
+      </c>
+      <c r="V13">
+        <v>22310</v>
+      </c>
+      <c r="W13">
+        <v>3874</v>
+      </c>
+      <c r="X13">
+        <v>784.21</v>
+      </c>
+      <c r="Y13">
+        <v>215.47</v>
+      </c>
+      <c r="Z13">
+        <v>274.61</v>
+      </c>
+      <c r="AA13">
+        <v>59.22</v>
+      </c>
+      <c r="AB13">
+        <v>67.069999999999993</v>
+      </c>
+      <c r="AC13">
+        <v>8.75</v>
+      </c>
+      <c r="AD13">
+        <v>13.66</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14">
+        <v>240</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <v>6.2</v>
+      </c>
+      <c r="E14">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>30.7</v>
+      </c>
+      <c r="H14">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="I14">
+        <v>3912</v>
+      </c>
+      <c r="J14">
+        <v>1914</v>
+      </c>
+      <c r="K14">
+        <v>2352</v>
+      </c>
+      <c r="L14">
+        <v>38.92</v>
+      </c>
+      <c r="M14">
+        <v>99.7</v>
+      </c>
+      <c r="N14">
+        <v>324.3</v>
+      </c>
+      <c r="O14">
+        <v>366.6</v>
+      </c>
+      <c r="P14">
+        <v>2.8359999999999999</v>
+      </c>
+      <c r="Q14">
+        <v>26.9</v>
+      </c>
+      <c r="R14">
+        <v>47.27</v>
+      </c>
+      <c r="S14">
+        <v>73.92</v>
+      </c>
+      <c r="T14">
+        <v>127.4</v>
+      </c>
+      <c r="U14">
+        <v>20.55</v>
+      </c>
+      <c r="V14">
+        <v>36680</v>
+      </c>
+      <c r="W14">
+        <v>5354</v>
+      </c>
+      <c r="X14">
+        <v>919.23</v>
+      </c>
+      <c r="Y14">
+        <v>259.74</v>
+      </c>
+      <c r="Z14">
+        <v>319.11</v>
+      </c>
+      <c r="AA14">
+        <v>76.209999999999994</v>
+      </c>
+      <c r="AB14">
+        <v>86.16</v>
+      </c>
+      <c r="AC14">
+        <v>11.11</v>
+      </c>
+      <c r="AD14">
+        <v>17.37</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15">
+        <v>270</v>
+      </c>
+      <c r="C15">
+        <v>135</v>
+      </c>
+      <c r="D15">
+        <v>6.6</v>
+      </c>
+      <c r="E15">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>36.1</v>
+      </c>
+      <c r="H15">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="I15">
+        <v>4595</v>
+      </c>
+      <c r="J15">
+        <v>2214</v>
+      </c>
+      <c r="K15">
+        <v>2754</v>
+      </c>
+      <c r="L15">
+        <v>57.9</v>
+      </c>
+      <c r="M15">
+        <v>112.3</v>
+      </c>
+      <c r="N15">
+        <v>428.9</v>
+      </c>
+      <c r="O15">
+        <v>484</v>
+      </c>
+      <c r="P15">
+        <v>4.1989999999999998</v>
+      </c>
+      <c r="Q15">
+        <v>30.2</v>
+      </c>
+      <c r="R15">
+        <v>62.2</v>
+      </c>
+      <c r="S15">
+        <v>96.95</v>
+      </c>
+      <c r="T15">
+        <v>157.1</v>
+      </c>
+      <c r="U15">
+        <v>23.8</v>
+      </c>
+      <c r="V15">
+        <v>69469</v>
+      </c>
+      <c r="W15">
+        <v>7974</v>
+      </c>
+      <c r="X15">
+        <v>1079.71</v>
+      </c>
+      <c r="Y15">
+        <v>300.37</v>
+      </c>
+      <c r="Z15">
+        <v>373.66</v>
+      </c>
+      <c r="AA15">
+        <v>100.79</v>
+      </c>
+      <c r="AB15">
+        <v>113.74</v>
+      </c>
+      <c r="AC15">
+        <v>14.62</v>
+      </c>
+      <c r="AD15">
+        <v>22.78</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>2</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16">
+        <v>300</v>
+      </c>
+      <c r="C16">
+        <v>150</v>
+      </c>
+      <c r="D16">
+        <v>7.1</v>
+      </c>
+      <c r="E16">
+        <v>10.7</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>42.2</v>
+      </c>
+      <c r="H16">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="I16">
+        <v>5381</v>
+      </c>
+      <c r="J16">
+        <v>2568</v>
+      </c>
+      <c r="K16">
+        <v>3210</v>
+      </c>
+      <c r="L16">
+        <v>83.56</v>
+      </c>
+      <c r="M16">
+        <v>124.6</v>
+      </c>
+      <c r="N16">
+        <v>557.1</v>
+      </c>
+      <c r="O16">
+        <v>628.4</v>
+      </c>
+      <c r="P16">
+        <v>6.0380000000000003</v>
+      </c>
+      <c r="Q16">
+        <v>33.5</v>
+      </c>
+      <c r="R16">
+        <v>80.5</v>
+      </c>
+      <c r="S16">
+        <v>125.2</v>
+      </c>
+      <c r="T16">
+        <v>197.5</v>
+      </c>
+      <c r="U16">
+        <v>27.82</v>
+      </c>
+      <c r="V16">
+        <v>124260</v>
+      </c>
+      <c r="W16">
+        <v>11520</v>
+      </c>
+      <c r="X16">
+        <v>1264.58</v>
+      </c>
+      <c r="Y16">
+        <v>348.44</v>
+      </c>
+      <c r="Z16">
+        <v>435.52</v>
+      </c>
+      <c r="AA16">
+        <v>130.91</v>
+      </c>
+      <c r="AB16">
+        <v>147.66</v>
+      </c>
+      <c r="AC16">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="AD16">
+        <v>29.43</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>2</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17">
+        <v>330</v>
+      </c>
+      <c r="C17">
+        <v>160</v>
+      </c>
+      <c r="D17">
+        <v>7.5</v>
+      </c>
+      <c r="E17">
+        <v>11.5</v>
+      </c>
+      <c r="F17">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>49.1</v>
+      </c>
+      <c r="H17">
+        <v>1.254</v>
+      </c>
+      <c r="I17">
+        <v>6261</v>
+      </c>
+      <c r="J17">
+        <v>3081</v>
+      </c>
+      <c r="K17">
+        <v>3680</v>
+      </c>
+      <c r="L17">
+        <v>117.7</v>
+      </c>
+      <c r="M17">
+        <v>137.1</v>
+      </c>
+      <c r="N17">
+        <v>713.1</v>
+      </c>
+      <c r="O17">
+        <v>804.3</v>
+      </c>
+      <c r="P17">
+        <v>7.8810000000000002</v>
+      </c>
+      <c r="Q17">
+        <v>35.5</v>
+      </c>
+      <c r="R17">
+        <v>98.52</v>
+      </c>
+      <c r="S17">
+        <v>153.69999999999999</v>
+      </c>
+      <c r="T17">
+        <v>275.89999999999998</v>
+      </c>
+      <c r="U17">
+        <v>36.79</v>
+      </c>
+      <c r="V17">
+        <v>196090</v>
+      </c>
+      <c r="W17">
+        <v>15490</v>
+      </c>
+      <c r="X17">
+        <v>1471.25</v>
+      </c>
+      <c r="Y17">
+        <v>418</v>
+      </c>
+      <c r="Z17">
+        <v>499.29</v>
+      </c>
+      <c r="AA17">
+        <v>167.59</v>
+      </c>
+      <c r="AB17">
+        <v>189.02</v>
+      </c>
+      <c r="AC17">
+        <v>23.15</v>
+      </c>
+      <c r="AD17">
+        <v>36.11</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17">
+        <v>2</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18">
+        <v>360</v>
+      </c>
+      <c r="C18">
+        <v>170</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>12.7</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>57.1</v>
+      </c>
+      <c r="H18">
+        <v>1.353</v>
+      </c>
+      <c r="I18">
+        <v>7273</v>
+      </c>
+      <c r="J18">
+        <v>3514</v>
+      </c>
+      <c r="K18">
+        <v>4318</v>
+      </c>
+      <c r="L18">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="M18">
+        <v>149.5</v>
+      </c>
+      <c r="N18">
+        <v>903.6</v>
+      </c>
+      <c r="O18">
+        <v>1019</v>
+      </c>
+      <c r="P18">
+        <v>10.43</v>
+      </c>
+      <c r="Q18">
+        <v>37.9</v>
+      </c>
+      <c r="R18">
+        <v>122.8</v>
+      </c>
+      <c r="S18">
+        <v>191.1</v>
+      </c>
+      <c r="T18">
+        <v>370.8</v>
+      </c>
+      <c r="U18">
+        <v>46.35</v>
+      </c>
+      <c r="V18">
+        <v>309370</v>
+      </c>
+      <c r="W18">
+        <v>21070</v>
+      </c>
+      <c r="X18">
+        <v>1709.14</v>
+      </c>
+      <c r="Y18">
+        <v>476.73</v>
+      </c>
+      <c r="Z18">
+        <v>585.85</v>
+      </c>
+      <c r="AA18">
+        <v>212.36</v>
+      </c>
+      <c r="AB18">
+        <v>239.5</v>
+      </c>
+      <c r="AC18">
+        <v>28.85</v>
+      </c>
+      <c r="AD18">
+        <v>44.91</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>2</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19">
+        <v>400</v>
+      </c>
+      <c r="C19">
+        <v>180</v>
+      </c>
+      <c r="D19">
+        <v>8.6</v>
+      </c>
+      <c r="E19">
+        <v>13.5</v>
+      </c>
+      <c r="F19">
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <v>66.3</v>
+      </c>
+      <c r="H19">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="I19">
+        <v>8446</v>
+      </c>
+      <c r="J19">
+        <v>4269</v>
+      </c>
+      <c r="K19">
+        <v>4860</v>
+      </c>
+      <c r="L19">
+        <v>231.3</v>
+      </c>
+      <c r="M19">
+        <v>165.5</v>
+      </c>
+      <c r="N19">
+        <v>1156</v>
+      </c>
+      <c r="O19">
+        <v>1307</v>
+      </c>
+      <c r="P19">
+        <v>13.18</v>
+      </c>
+      <c r="Q19">
+        <v>39.5</v>
+      </c>
+      <c r="R19">
+        <v>146.4</v>
+      </c>
+      <c r="S19">
+        <v>229</v>
+      </c>
+      <c r="T19">
+        <v>504.1</v>
+      </c>
+      <c r="U19">
+        <v>58.62</v>
+      </c>
+      <c r="V19">
+        <v>482890</v>
+      </c>
+      <c r="W19">
+        <v>27930</v>
+      </c>
+      <c r="X19">
+        <v>1984.89</v>
+      </c>
+      <c r="Y19">
+        <v>579.27</v>
+      </c>
+      <c r="Z19">
+        <v>659.39</v>
+      </c>
+      <c r="AA19">
+        <v>271.76</v>
+      </c>
+      <c r="AB19">
+        <v>307.18</v>
+      </c>
+      <c r="AC19">
+        <v>34.409999999999997</v>
+      </c>
+      <c r="AD19">
+        <v>53.82</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <v>3</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20">
+        <v>450</v>
+      </c>
+      <c r="C20">
+        <v>190</v>
+      </c>
+      <c r="D20">
+        <v>9.4</v>
+      </c>
+      <c r="E20">
+        <v>14.6</v>
+      </c>
+      <c r="F20">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="H20">
+        <v>1.605</v>
+      </c>
+      <c r="I20">
+        <v>9882</v>
+      </c>
+      <c r="J20">
+        <v>5085</v>
+      </c>
+      <c r="K20">
+        <v>5548</v>
+      </c>
+      <c r="L20">
+        <v>337.4</v>
+      </c>
+      <c r="M20">
+        <v>184.8</v>
+      </c>
+      <c r="N20">
+        <v>1500</v>
+      </c>
+      <c r="O20">
+        <v>1702</v>
+      </c>
+      <c r="P20">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="Q20">
+        <v>41.2</v>
+      </c>
+      <c r="R20">
+        <v>176.4</v>
+      </c>
+      <c r="S20">
+        <v>276.39999999999998</v>
+      </c>
+      <c r="T20">
+        <v>660.5</v>
+      </c>
+      <c r="U20">
+        <v>70.27</v>
+      </c>
+      <c r="V20">
+        <v>780970</v>
+      </c>
+      <c r="W20">
+        <v>37970</v>
+      </c>
+      <c r="X20">
+        <v>2322.29</v>
+      </c>
+      <c r="Y20">
+        <v>689.85</v>
+      </c>
+      <c r="Z20">
+        <v>752.74</v>
+      </c>
+      <c r="AA20">
+        <v>352.43</v>
+      </c>
+      <c r="AB20">
+        <v>399.92</v>
+      </c>
+      <c r="AC20">
+        <v>41.46</v>
+      </c>
+      <c r="AD20">
+        <v>64.95</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>3</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21">
+        <v>500</v>
+      </c>
+      <c r="C21">
+        <v>200</v>
+      </c>
+      <c r="D21">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>21</v>
+      </c>
+      <c r="G21">
+        <v>90.7</v>
+      </c>
+      <c r="H21">
+        <v>1.744</v>
+      </c>
+      <c r="I21">
+        <v>11552</v>
+      </c>
+      <c r="J21">
+        <v>5987</v>
+      </c>
+      <c r="K21">
+        <v>6400</v>
+      </c>
+      <c r="L21">
+        <v>482</v>
+      </c>
+      <c r="M21">
+        <v>204.3</v>
+      </c>
+      <c r="N21">
+        <v>1928</v>
+      </c>
+      <c r="O21">
+        <v>2194</v>
+      </c>
+      <c r="P21">
+        <v>21.42</v>
+      </c>
+      <c r="Q21">
+        <v>43.1</v>
+      </c>
+      <c r="R21">
+        <v>214.2</v>
+      </c>
+      <c r="S21">
+        <v>335.9</v>
+      </c>
+      <c r="T21">
+        <v>886.2</v>
+      </c>
+      <c r="U21">
+        <v>86.88</v>
+      </c>
+      <c r="V21">
+        <v>1235400</v>
+      </c>
+      <c r="W21">
+        <v>51280</v>
+      </c>
+      <c r="X21">
+        <v>2714.76</v>
+      </c>
+      <c r="Y21">
+        <v>812.35</v>
+      </c>
+      <c r="Z21">
+        <v>868.33</v>
+      </c>
+      <c r="AA21">
+        <v>453.07</v>
+      </c>
+      <c r="AB21">
+        <v>515.62</v>
+      </c>
+      <c r="AC21">
+        <v>50.33</v>
+      </c>
+      <c r="AD21">
+        <v>78.930000000000007</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>3</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22">
+        <v>550</v>
+      </c>
+      <c r="C22">
+        <v>210</v>
+      </c>
+      <c r="D22">
+        <v>11.1</v>
+      </c>
+      <c r="E22">
+        <v>17.2</v>
+      </c>
+      <c r="F22">
+        <v>24</v>
+      </c>
+      <c r="G22">
+        <v>105.5</v>
+      </c>
+      <c r="H22">
+        <v>1.877</v>
+      </c>
+      <c r="I22">
+        <v>13442</v>
+      </c>
+      <c r="J22">
+        <v>7234</v>
+      </c>
+      <c r="K22">
+        <v>7224</v>
+      </c>
+      <c r="L22">
+        <v>671.2</v>
+      </c>
+      <c r="M22">
+        <v>223.5</v>
+      </c>
+      <c r="N22">
+        <v>2441</v>
+      </c>
+      <c r="O22">
+        <v>2787</v>
+      </c>
+      <c r="P22">
+        <v>26.68</v>
+      </c>
+      <c r="Q22">
+        <v>44.5</v>
+      </c>
+      <c r="R22">
+        <v>254.1</v>
+      </c>
+      <c r="S22">
+        <v>400.5</v>
+      </c>
+      <c r="T22">
+        <v>1217</v>
+      </c>
+      <c r="U22">
+        <v>109.6</v>
+      </c>
+      <c r="V22">
+        <v>1861500</v>
+      </c>
+      <c r="W22">
+        <v>66890</v>
+      </c>
+      <c r="X22">
+        <v>3158.78</v>
+      </c>
+      <c r="Y22">
+        <v>981.51</v>
+      </c>
+      <c r="Z22">
+        <v>980.13</v>
+      </c>
+      <c r="AA22">
+        <v>573.54</v>
+      </c>
+      <c r="AB22">
+        <v>654.95000000000005</v>
+      </c>
+      <c r="AC22">
+        <v>59.7</v>
+      </c>
+      <c r="AD22">
+        <v>94.13</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>4</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23">
+        <v>600</v>
+      </c>
+      <c r="C23">
+        <v>220</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>19</v>
+      </c>
+      <c r="F23">
+        <v>24</v>
+      </c>
+      <c r="G23">
+        <v>122.4</v>
+      </c>
+      <c r="H23">
+        <v>2.0150000000000001</v>
+      </c>
+      <c r="I23">
+        <v>15598</v>
+      </c>
+      <c r="J23">
+        <v>8378</v>
+      </c>
+      <c r="K23">
+        <v>8360</v>
+      </c>
+      <c r="L23">
+        <v>920.8</v>
+      </c>
+      <c r="M23">
+        <v>243</v>
+      </c>
+      <c r="N23">
+        <v>3069</v>
+      </c>
+      <c r="O23">
+        <v>3512</v>
+      </c>
+      <c r="P23">
+        <v>33.869999999999997</v>
+      </c>
+      <c r="Q23">
+        <v>46.6</v>
+      </c>
+      <c r="R23">
+        <v>307.89999999999998</v>
+      </c>
+      <c r="S23">
+        <v>485.6</v>
+      </c>
+      <c r="T23">
+        <v>1646</v>
+      </c>
+      <c r="U23">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="V23">
+        <v>2814700</v>
+      </c>
+      <c r="W23">
+        <v>88510</v>
+      </c>
+      <c r="X23">
+        <v>3665.63</v>
+      </c>
+      <c r="Y23">
+        <v>1136.76</v>
+      </c>
+      <c r="Z23">
+        <v>1134.26</v>
+      </c>
+      <c r="AA23">
+        <v>721.32</v>
+      </c>
+      <c r="AB23">
+        <v>825.41</v>
+      </c>
+      <c r="AC23">
+        <v>72.37</v>
+      </c>
+      <c r="AD23">
+        <v>114.13</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>